--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11286,16 +11286,16 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1183618000000</v>
+        <v>1182578000000</v>
       </c>
       <c r="D434" t="n">
-        <v>1183618000000</v>
+        <v>1182578000000</v>
       </c>
       <c r="E434" t="n">
-        <v>1183618000000</v>
+        <v>1182578000000</v>
       </c>
       <c r="F434" t="n">
-        <v>1183618000000</v>
+        <v>1182578000000</v>
       </c>
       <c r="G434" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1181166000000</v>
+        <v>1180145000000</v>
       </c>
       <c r="D435" t="n">
-        <v>1181166000000</v>
+        <v>1180145000000</v>
       </c>
       <c r="E435" t="n">
-        <v>1181166000000</v>
+        <v>1180145000000</v>
       </c>
       <c r="F435" t="n">
-        <v>1181166000000</v>
+        <v>1180145000000</v>
       </c>
       <c r="G435" t="n">
         <v>0</v>
@@ -11711,16 +11711,16 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1297397000000</v>
+        <v>1297962000000</v>
       </c>
       <c r="D451" t="n">
-        <v>1297397000000</v>
+        <v>1297962000000</v>
       </c>
       <c r="E451" t="n">
-        <v>1297397000000</v>
+        <v>1297962000000</v>
       </c>
       <c r="F451" t="n">
-        <v>1297397000000</v>
+        <v>1297962000000</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -11861,16 +11861,16 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1376065000000</v>
+        <v>1375618000000</v>
       </c>
       <c r="D457" t="n">
-        <v>1376065000000</v>
+        <v>1375618000000</v>
       </c>
       <c r="E457" t="n">
-        <v>1376065000000</v>
+        <v>1375618000000</v>
       </c>
       <c r="F457" t="n">
-        <v>1376065000000</v>
+        <v>1375618000000</v>
       </c>
       <c r="G457" t="n">
         <v>0</v>
@@ -11886,16 +11886,16 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1365331000000</v>
+        <v>1365405000000</v>
       </c>
       <c r="D458" t="n">
-        <v>1365331000000</v>
+        <v>1365405000000</v>
       </c>
       <c r="E458" t="n">
-        <v>1365331000000</v>
+        <v>1365405000000</v>
       </c>
       <c r="F458" t="n">
-        <v>1365331000000</v>
+        <v>1365405000000</v>
       </c>
       <c r="G458" t="n">
         <v>0</v>
@@ -11923,6 +11923,81 @@
         <v>1371522000000</v>
       </c>
       <c r="G459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1393379000000</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1393379000000</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1393379000000</v>
+      </c>
+      <c r="F460" t="n">
+        <v>1393379000000</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1391394000000</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1391394000000</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1391394000000</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1391394000000</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1394414000000</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1394414000000</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1394414000000</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1394414000000</v>
+      </c>
+      <c r="G462" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>31138.41666666667</v>
+        <v>31138.45833333333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -11936,16 +11936,16 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1393379000000</v>
+        <v>1393850000000</v>
       </c>
       <c r="D460" t="n">
-        <v>1393379000000</v>
+        <v>1393850000000</v>
       </c>
       <c r="E460" t="n">
-        <v>1393379000000</v>
+        <v>1393850000000</v>
       </c>
       <c r="F460" t="n">
-        <v>1393379000000</v>
+        <v>1393850000000</v>
       </c>
       <c r="G460" t="n">
         <v>0</v>
@@ -11998,6 +11998,31 @@
         <v>1394414000000</v>
       </c>
       <c r="G462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1430306000000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1430306000000</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1430306000000</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1430306000000</v>
+      </c>
+      <c r="G463" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G463"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12026,6 +12026,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>1417792000000</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1417792000000</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1417792000000</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1417792000000</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1419788000000</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1419788000000</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1419788000000</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1419788000000</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MAM2</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="F466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Morocco_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G466"/>
+  <dimension ref="A1:G467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11110,18 +11110,41 @@
         <v>7</v>
       </c>
       <c r="C466">
-        <v>1430691000000</v>
+        <v>1430700000000</v>
       </c>
       <c r="D466">
-        <v>1430691000000</v>
+        <v>1430700000000</v>
       </c>
       <c r="E466">
-        <v>1430691000000</v>
+        <v>1430700000000</v>
       </c>
       <c r="F466">
-        <v>1430691000000</v>
+        <v>1430700000000</v>
       </c>
       <c r="G466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B467" t="s">
+        <v>7</v>
+      </c>
+      <c r="C467">
+        <v>1427951000000</v>
+      </c>
+      <c r="D467">
+        <v>1427951000000</v>
+      </c>
+      <c r="E467">
+        <v>1427951000000</v>
+      </c>
+      <c r="F467">
+        <v>1427951000000</v>
+      </c>
+      <c r="G467">
         <v>0</v>
       </c>
     </row>
